--- a/data/Hualqui.xlsx
+++ b/data/Hualqui.xlsx
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,11 +3651,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3699,11 +3699,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Hualqui.xlsx
+++ b/data/Hualqui.xlsx
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,11 +3651,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3699,11 +3699,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Hualqui.xlsx
+++ b/data/Hualqui.xlsx
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">

--- a/data/Hualqui.xlsx
+++ b/data/Hualqui.xlsx
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,11 +3651,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3699,11 +3699,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Hualqui.xlsx
+++ b/data/Hualqui.xlsx
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F89" t="n">

--- a/data/Hualqui.xlsx
+++ b/data/Hualqui.xlsx
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
